--- a/analysis/xlsx/2023/2023_나이대별_판매량.xlsx
+++ b/analysis/xlsx/2023/2023_나이대별_판매량.xlsx
@@ -485,9 +485,9 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>2023년도 10대 - 공급가액: 0.0, 예측 공급가액: 0.0
-2023년도 20대 - 공급가액: 1071221000.0, 예측 공급가액: 1290477600.0
-2023년도 30대 - 공급가액: 1256031000.0, 예측 공급가액: 1504385000.0
-2023년도 40대 - 공급가액: 692995000.0, 예측 공급가액: 828813000.0</t>
+2023년도 20대 - 공급가액: 1130645000.0, 예측 공급가액: 1346167550.0
+2023년도 30대 - 공급가액: 1141694000.0, 예측 공급가액: 1382833050.0
+2023년도 40대 - 공급가액: 747908000.0, 예측 공급가액: 894675000.0</t>
         </is>
       </c>
     </row>
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1071221000</v>
+        <v>1130645000</v>
       </c>
       <c r="D3" t="n">
-        <v>1290477600</v>
+        <v>1346167550</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1256031000</v>
+        <v>1141694000</v>
       </c>
       <c r="D4" t="n">
-        <v>1504385000</v>
+        <v>1382833050</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>692995000</v>
+        <v>747908000</v>
       </c>
       <c r="D5" t="n">
-        <v>828813000</v>
+        <v>894675000</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
